--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0897650-61A1-4D33-ACFF-38BF7D6C38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA59BD-4D5A-4403-A078-E199FE3C5EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -271,7 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +806,7 @@
       <c r="D20" s="3">
         <v>38238</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>131</v>
       </c>
     </row>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D7A5D-3D15-4766-85AF-9CC2697C2D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52624315-5FC3-42AC-968B-995211FD65AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,9 +244,6 @@
     <t>Yamaha</t>
   </si>
   <si>
-    <t xml:space="preserve">Xe bốn chỗ </t>
-  </si>
-  <si>
     <t>Vinfast Fadil</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>Đám cưới</t>
+  </si>
+  <si>
+    <t>Xe bốn chỗ</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -315,10 +315,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -1743,7 +1743,7 @@
         <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="5">
         <v>44446</v>
@@ -1752,10 +1752,10 @@
         <v>160</v>
       </c>
       <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s">
         <v>76</v>
-      </c>
-      <c r="F60" t="s">
-        <v>77</v>
       </c>
       <c r="G60">
         <v>1000000</v>
@@ -1784,7 +1784,7 @@
         <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="5">
         <v>44447</v>
@@ -1793,10 +1793,10 @@
         <v>160</v>
       </c>
       <c r="E61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s">
         <v>76</v>
-      </c>
-      <c r="F61" t="s">
-        <v>77</v>
       </c>
       <c r="G61">
         <v>1000000</v>
@@ -1825,7 +1825,7 @@
         <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="5">
         <v>44448</v>
@@ -1834,10 +1834,10 @@
         <v>160</v>
       </c>
       <c r="E62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s">
         <v>76</v>
-      </c>
-      <c r="F62" t="s">
-        <v>77</v>
       </c>
       <c r="G62">
         <v>1000000</v>
@@ -1866,7 +1866,7 @@
         <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="5">
         <v>44449</v>
@@ -1875,10 +1875,10 @@
         <v>160</v>
       </c>
       <c r="E63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s">
         <v>76</v>
-      </c>
-      <c r="F63" t="s">
-        <v>77</v>
       </c>
       <c r="G63">
         <v>1000000</v>
@@ -1907,7 +1907,7 @@
         <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="5">
         <v>44450</v>
@@ -1916,10 +1916,10 @@
         <v>160</v>
       </c>
       <c r="E64" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s">
         <v>76</v>
-      </c>
-      <c r="F64" t="s">
-        <v>77</v>
       </c>
       <c r="G64">
         <v>1000000</v>
@@ -1948,7 +1948,7 @@
         <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="5">
         <v>44451</v>
@@ -1957,10 +1957,10 @@
         <v>160</v>
       </c>
       <c r="E65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s">
         <v>76</v>
-      </c>
-      <c r="F65" t="s">
-        <v>77</v>
       </c>
       <c r="G65">
         <v>1000000</v>
@@ -1989,7 +1989,7 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="5">
         <v>44452</v>
@@ -1998,10 +1998,10 @@
         <v>160</v>
       </c>
       <c r="E66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s">
         <v>76</v>
-      </c>
-      <c r="F66" t="s">
-        <v>77</v>
       </c>
       <c r="G66">
         <v>1000000</v>
@@ -2030,7 +2030,7 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="5">
         <v>44453</v>
@@ -2039,10 +2039,10 @@
         <v>160</v>
       </c>
       <c r="E67" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s">
         <v>76</v>
-      </c>
-      <c r="F67" t="s">
-        <v>77</v>
       </c>
       <c r="G67">
         <v>1000000</v>
@@ -2071,7 +2071,7 @@
         <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="5">
         <v>44454</v>
@@ -2080,10 +2080,10 @@
         <v>160</v>
       </c>
       <c r="E68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s">
         <v>76</v>
-      </c>
-      <c r="F68" t="s">
-        <v>77</v>
       </c>
       <c r="G68">
         <v>1000000</v>
@@ -2112,7 +2112,7 @@
         <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="5">
         <v>44455</v>
@@ -2121,10 +2121,10 @@
         <v>160</v>
       </c>
       <c r="E69" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s">
         <v>76</v>
-      </c>
-      <c r="F69" t="s">
-        <v>77</v>
       </c>
       <c r="G69">
         <v>1000000</v>
@@ -2153,7 +2153,7 @@
         <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="5">
         <v>44456</v>
@@ -2162,10 +2162,10 @@
         <v>160</v>
       </c>
       <c r="E70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
         <v>76</v>
-      </c>
-      <c r="F70" t="s">
-        <v>77</v>
       </c>
       <c r="G70">
         <v>1000000</v>
@@ -2194,7 +2194,7 @@
         <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="5">
         <v>44457</v>
@@ -2203,10 +2203,10 @@
         <v>160</v>
       </c>
       <c r="E71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s">
         <v>76</v>
-      </c>
-      <c r="F71" t="s">
-        <v>77</v>
       </c>
       <c r="G71">
         <v>1000000</v>
@@ -2235,7 +2235,7 @@
         <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="5">
         <v>44458</v>
@@ -2244,10 +2244,10 @@
         <v>160</v>
       </c>
       <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s">
         <v>76</v>
-      </c>
-      <c r="F72" t="s">
-        <v>77</v>
       </c>
       <c r="G72">
         <v>1000000</v>
@@ -2276,7 +2276,7 @@
         <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="5">
         <v>44459</v>
@@ -2285,10 +2285,10 @@
         <v>160</v>
       </c>
       <c r="E73" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s">
         <v>76</v>
-      </c>
-      <c r="F73" t="s">
-        <v>77</v>
       </c>
       <c r="G73">
         <v>1000000</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2363,7 +2363,7 @@
         <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="5">
         <v>44446</v>
@@ -2372,10 +2372,10 @@
         <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G77">
         <v>2000000</v>
@@ -2404,7 +2404,7 @@
         <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="5">
         <v>44447</v>
@@ -2413,10 +2413,10 @@
         <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G78">
         <v>2000000</v>
@@ -2445,7 +2445,7 @@
         <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="5">
         <v>44448</v>
@@ -2454,10 +2454,10 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G79">
         <v>2000000</v>
@@ -2486,7 +2486,7 @@
         <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="5">
         <v>44449</v>
@@ -2495,10 +2495,10 @@
         <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G80">
         <v>2000000</v>
@@ -2527,7 +2527,7 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="5">
         <v>44450</v>
@@ -2536,10 +2536,10 @@
         <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G81">
         <v>2000000</v>
@@ -2568,7 +2568,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="5">
         <v>44451</v>
@@ -2577,10 +2577,10 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G82">
         <v>2000000</v>
@@ -2609,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="5">
         <v>44452</v>
@@ -2618,10 +2618,10 @@
         <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G83">
         <v>2000000</v>
@@ -2650,7 +2650,7 @@
         <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="5">
         <v>44453</v>
@@ -2659,10 +2659,10 @@
         <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G84">
         <v>2000000</v>
@@ -2691,7 +2691,7 @@
         <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="5">
         <v>44454</v>
@@ -2700,10 +2700,10 @@
         <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G85">
         <v>2000000</v>
@@ -2732,7 +2732,7 @@
         <v>125</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="5">
         <v>44455</v>
@@ -2741,10 +2741,10 @@
         <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G86">
         <v>2000000</v>
@@ -2773,7 +2773,7 @@
         <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="5">
         <v>44456</v>
@@ -2782,10 +2782,10 @@
         <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87">
         <v>2000000</v>
@@ -2814,7 +2814,7 @@
         <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="5">
         <v>44457</v>
@@ -2823,10 +2823,10 @@
         <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G88">
         <v>2000000</v>
@@ -2855,7 +2855,7 @@
         <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="5">
         <v>44458</v>
@@ -2864,10 +2864,10 @@
         <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G89">
         <v>2000000</v>
@@ -2896,7 +2896,7 @@
         <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="5">
         <v>44459</v>
@@ -2905,10 +2905,10 @@
         <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G90">
         <v>2000000</v>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52624315-5FC3-42AC-968B-995211FD65AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="80">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -244,6 +238,9 @@
     <t>Yamaha</t>
   </si>
   <si>
+    <t>Xe bốn chỗ</t>
+  </si>
+  <si>
     <t>Vinfast Fadil</t>
   </si>
   <si>
@@ -257,19 +254,20 @@
   </si>
   <si>
     <t>Đám cưới</t>
-  </si>
-  <si>
-    <t>Xe bốn chỗ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +275,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +439,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -306,32 +634,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -589,42 +1204,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.2181818181818" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
+    <col min="4" max="4" width="17.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="10.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="12.4454545454545" customWidth="1"/>
+    <col min="7" max="7" width="17.3363636363636" customWidth="1"/>
+    <col min="9" max="9" width="13.3363636363636" customWidth="1"/>
+    <col min="10" max="10" width="16.4454545454545" customWidth="1"/>
+    <col min="11" max="11" width="16.6636363636364" customWidth="1"/>
+    <col min="12" max="12" width="15.2181818181818" customWidth="1"/>
+    <col min="13" max="13" width="13.4454545454545" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.6" customHeight="1">
+    <row r="2" ht="12.6" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -656,7 +1271,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.8" customHeight="1">
+    <row r="6" ht="13.8" customHeight="1" spans="1:2">
       <c r="A6">
         <v>126</v>
       </c>
@@ -712,7 +1327,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.8" customHeight="1">
+    <row r="13" ht="13.8" customHeight="1" spans="1:2">
       <c r="A13">
         <v>133</v>
       </c>
@@ -744,12 +1359,12 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -766,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -783,7 +1398,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -800,7 +1415,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -821,39 +1436,23 @@
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -863,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -880,7 +1479,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -897,7 +1496,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -914,7 +1513,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -931,7 +1530,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -948,7 +1547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -965,12 +1564,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -987,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1004,7 +1603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1021,7 +1620,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1038,7 +1637,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1055,7 +1654,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1072,7 +1671,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1084,7 +1683,7 @@
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1692,9 +2291,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -1704,7 +2303,7 @@
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1743,7 +2342,7 @@
         <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="5">
         <v>44446</v>
@@ -1752,10 +2351,10 @@
         <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G60">
         <v>1000000</v>
@@ -1784,7 +2383,7 @@
         <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="5">
         <v>44447</v>
@@ -1793,10 +2392,10 @@
         <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G61">
         <v>1000000</v>
@@ -1825,7 +2424,7 @@
         <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" s="5">
         <v>44448</v>
@@ -1834,10 +2433,10 @@
         <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G62">
         <v>1000000</v>
@@ -1866,7 +2465,7 @@
         <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" s="5">
         <v>44449</v>
@@ -1875,10 +2474,10 @@
         <v>160</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G63">
         <v>1000000</v>
@@ -1907,7 +2506,7 @@
         <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" s="5">
         <v>44450</v>
@@ -1916,10 +2515,10 @@
         <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G64">
         <v>1000000</v>
@@ -1948,7 +2547,7 @@
         <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" s="5">
         <v>44451</v>
@@ -1957,10 +2556,10 @@
         <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G65">
         <v>1000000</v>
@@ -1989,7 +2588,7 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5">
         <v>44452</v>
@@ -1998,10 +2597,10 @@
         <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G66">
         <v>1000000</v>
@@ -2030,7 +2629,7 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C67" s="5">
         <v>44453</v>
@@ -2039,10 +2638,10 @@
         <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G67">
         <v>1000000</v>
@@ -2071,7 +2670,7 @@
         <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68" s="5">
         <v>44454</v>
@@ -2080,10 +2679,10 @@
         <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G68">
         <v>1000000</v>
@@ -2112,7 +2711,7 @@
         <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" s="5">
         <v>44455</v>
@@ -2121,10 +2720,10 @@
         <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G69">
         <v>1000000</v>
@@ -2153,7 +2752,7 @@
         <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="5">
         <v>44456</v>
@@ -2162,10 +2761,10 @@
         <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G70">
         <v>1000000</v>
@@ -2194,7 +2793,7 @@
         <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" s="5">
         <v>44457</v>
@@ -2203,10 +2802,10 @@
         <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G71">
         <v>1000000</v>
@@ -2235,7 +2834,7 @@
         <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="5">
         <v>44458</v>
@@ -2244,10 +2843,10 @@
         <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G72">
         <v>1000000</v>
@@ -2276,7 +2875,7 @@
         <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="5">
         <v>44459</v>
@@ -2285,10 +2884,10 @@
         <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G73">
         <v>1000000</v>
@@ -2312,9 +2911,9 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2324,7 +2923,7 @@
       <c r="B76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -2363,7 +2962,7 @@
         <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="5">
         <v>44446</v>
@@ -2372,10 +2971,10 @@
         <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G77">
         <v>2000000</v>
@@ -2404,7 +3003,7 @@
         <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" s="5">
         <v>44447</v>
@@ -2413,10 +3012,10 @@
         <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G78">
         <v>2000000</v>
@@ -2445,7 +3044,7 @@
         <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="5">
         <v>44448</v>
@@ -2454,10 +3053,10 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G79">
         <v>2000000</v>
@@ -2486,7 +3085,7 @@
         <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C80" s="5">
         <v>44449</v>
@@ -2495,10 +3094,10 @@
         <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G80">
         <v>2000000</v>
@@ -2527,7 +3126,7 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="5">
         <v>44450</v>
@@ -2536,10 +3135,10 @@
         <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G81">
         <v>2000000</v>
@@ -2568,7 +3167,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82" s="5">
         <v>44451</v>
@@ -2577,10 +3176,10 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G82">
         <v>2000000</v>
@@ -2609,7 +3208,7 @@
         <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C83" s="5">
         <v>44452</v>
@@ -2618,10 +3217,10 @@
         <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G83">
         <v>2000000</v>
@@ -2650,7 +3249,7 @@
         <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C84" s="5">
         <v>44453</v>
@@ -2659,10 +3258,10 @@
         <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G84">
         <v>2000000</v>
@@ -2691,7 +3290,7 @@
         <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C85" s="5">
         <v>44454</v>
@@ -2700,10 +3299,10 @@
         <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G85">
         <v>2000000</v>
@@ -2732,7 +3331,7 @@
         <v>125</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C86" s="5">
         <v>44455</v>
@@ -2741,10 +3340,10 @@
         <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G86">
         <v>2000000</v>
@@ -2773,7 +3372,7 @@
         <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C87" s="5">
         <v>44456</v>
@@ -2782,10 +3381,10 @@
         <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G87">
         <v>2000000</v>
@@ -2814,7 +3413,7 @@
         <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C88" s="5">
         <v>44457</v>
@@ -2823,10 +3422,10 @@
         <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G88">
         <v>2000000</v>
@@ -2855,7 +3454,7 @@
         <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C89" s="5">
         <v>44458</v>
@@ -2864,10 +3463,10 @@
         <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G89">
         <v>2000000</v>
@@ -2896,7 +3495,7 @@
         <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C90" s="5">
         <v>44459</v>
@@ -2905,10 +3504,10 @@
         <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G90">
         <v>2000000</v>
@@ -2934,6 +3533,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B5668-7326-4C54-8015-818EE7CFE80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,15 +265,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,152 +277,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,194 +297,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -634,319 +306,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1204,42 +589,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="17.8909090909091" customWidth="1"/>
-    <col min="5" max="5" width="10.4454545454545" customWidth="1"/>
-    <col min="6" max="6" width="12.4454545454545" customWidth="1"/>
-    <col min="7" max="7" width="17.3363636363636" customWidth="1"/>
-    <col min="9" max="9" width="13.3363636363636" customWidth="1"/>
-    <col min="10" max="10" width="16.4454545454545" customWidth="1"/>
-    <col min="11" max="11" width="16.6636363636364" customWidth="1"/>
-    <col min="12" max="12" width="15.2181818181818" customWidth="1"/>
-    <col min="13" max="13" width="13.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="15.4454545454545" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="12.6" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="12.6" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +656,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="13.8" customHeight="1">
       <c r="A6">
         <v>126</v>
       </c>
@@ -1327,7 +712,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="1:2">
+    <row r="13" spans="1:2" ht="13.8" customHeight="1">
       <c r="A13">
         <v>133</v>
       </c>
@@ -1359,7 +744,7 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1432,18 +817,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
@@ -1452,7 +829,7 @@
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1564,12 +941,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1586,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1620,7 +997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1637,7 +1014,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1654,7 +1031,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1671,7 +1048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1683,7 +1060,7 @@
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2291,7 +1668,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2303,7 +1680,7 @@
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2911,7 +2288,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2300,7 @@
       <c r="B76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3533,7 +2910,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B5668-7326-4C54-8015-818EE7CFE80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F106AE-E185-4725-9833-5E0AEA34CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -315,10 +315,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F106AE-E185-4725-9833-5E0AEA34CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A083F5-8D85-43A8-B0F8-98D4DCA1B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
